--- a/TestData/BeatsAndBindingCountData.xlsx
+++ b/TestData/BeatsAndBindingCountData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ron\source\repos\conlang_audio_honing\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0722C7F1-C643-4DB4-B14B-4C9EA173E3B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F73952-DA4E-4C84-9067-207B6DE33DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="38640" windowHeight="15720" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Absolute Counts" sheetId="1" r:id="rId1"/>
@@ -1261,11 +1261,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1293,11 +1293,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1321,56 +1321,141 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Word Initial Counts'!$C$1</c:f>
+              <c:f>'Word Initial Counts'!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Test English</c:v>
+                  <c:v>CV</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent1">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Word Initial Counts'!$B$2:$B$4</c:f>
+              <c:f>'Word Initial Counts'!$C$1:$I$1</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>CV</c:v>
+                  <c:v>Test English</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>CCV</c:v>
+                  <c:v>Dwarven Pre-honing</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>CCCV</c:v>
+                  <c:v>Dwarven Post-honing</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Elven Pre-honing</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Elven Post-honing</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Orcish Pre-honing</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Orcish Post-honing</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Word Initial Counts'!$C$2:$C$4</c:f>
+              <c:f>'Word Initial Counts'!$C$2:$I$2</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.74152123806387882</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.24432005268356932</c:v>
+                  <c:v>0.99778089231487965</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.415870925255186E-2</c:v>
+                  <c:v>0.99805330937406411</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.59039476992708073</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.54716364716364718</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8834187311816597</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8867786705624543</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1386,56 +1471,141 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Word Initial Counts'!$D$1</c:f>
+              <c:f>'Word Initial Counts'!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Dwarven Pre-honing</c:v>
+                  <c:v>CCV</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent2">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Word Initial Counts'!$B$2:$B$4</c:f>
+              <c:f>'Word Initial Counts'!$C$1:$I$1</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>CV</c:v>
+                  <c:v>Test English</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>CCV</c:v>
+                  <c:v>Dwarven Pre-honing</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>CCCV</c:v>
+                  <c:v>Dwarven Post-honing</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Elven Pre-honing</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Elven Post-honing</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Orcish Pre-honing</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Orcish Post-honing</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Word Initial Counts'!$D$2:$D$4</c:f>
+              <c:f>'Word Initial Counts'!$C$3:$I$3</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.99778089231487965</c:v>
+                  <c:v>0.24432005268356932</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.1607101144592387E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.8397570661060497E-5</c:v>
+                  <c:v>1.8718179095537587E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32348503897410108</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.35547965547965549</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11658126881834029</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.11322132943754565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1451,56 +1621,141 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Word Initial Counts'!$E$1</c:f>
+              <c:f>'Word Initial Counts'!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Dwarven Post-honing</c:v>
+                  <c:v>CCCV</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="accent3">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Word Initial Counts'!$B$2:$B$4</c:f>
+              <c:f>'Word Initial Counts'!$C$1:$I$1</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>CV</c:v>
+                  <c:v>Test English</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>CCV</c:v>
+                  <c:v>Dwarven Pre-honing</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>CCCV</c:v>
+                  <c:v>Dwarven Post-honing</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Elven Pre-honing</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Elven Post-honing</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Orcish Pre-honing</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Orcish Post-honing</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Word Initial Counts'!$E$2:$E$4</c:f>
+              <c:f>'Word Initial Counts'!$C$4:$I$4</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.99805330937406411</c:v>
+                  <c:v>1.415870925255186E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8718179095537587E-3</c:v>
+                  <c:v>5.8397570661060497E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>7.4872716382150348E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.6120191098818202E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.7356697356697358E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1511,278 +1766,16 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Word Initial Counts'!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Elven Pre-honing</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Word Initial Counts'!$B$2:$B$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>CV</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>CCV</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>CCCV</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Word Initial Counts'!$F$2:$F$4</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.59039476992708073</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.32348503897410108</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.6120191098818202E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-65F7-445F-A932-D3B8C46D29C4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Word Initial Counts'!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Elven Post-honing</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Word Initial Counts'!$B$2:$B$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>CV</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>CCV</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>CCCV</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Word Initial Counts'!$G$2:$G$4</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.54716364716364718</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.35547965547965549</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.7356697356697358E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-65F7-445F-A932-D3B8C46D29C4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Word Initial Counts'!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Orcish Pre-honing</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Word Initial Counts'!$B$2:$B$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>CV</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>CCV</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>CCCV</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Word Initial Counts'!$H$2:$H$4</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.8834187311816597</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.11658126881834029</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-65F7-445F-A932-D3B8C46D29C4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Word Initial Counts'!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Orcish Post-honing</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Word Initial Counts'!$B$2:$B$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>CV</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>CCV</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>CCCV</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Word Initial Counts'!$I$2:$I$4</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.8867786705624543</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.11322132943754565</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-65F7-445F-A932-D3B8C46D29C4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
         <c:dLbls>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:gapWidth val="150"/>
         <c:axId val="1277026144"/>
         <c:axId val="1277026624"/>
       </c:barChart>
@@ -1799,11 +1792,11 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1815,11 +1808,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1842,17 +1835,29 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1862,33 +1867,6 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="1277026144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -1905,7 +1883,12 @@
       <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -1918,9 +1901,9 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1944,14 +1927,30 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -1992,11 +1991,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -2006,13 +2005,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Word</a:t>
+              <a:t>Word Medial Clusters</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Medial Clusters</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2029,11 +2023,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -2057,68 +2051,141 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Word Medial Relative Counts'!$C$1</c:f>
+              <c:f>'Word Medial Relative Counts'!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Test English</c:v>
+                  <c:v>VCV</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent1">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Word Medial Relative Counts'!$B$2:$B$6</c:f>
+              <c:f>'Word Medial Relative Counts'!$C$1:$I$1</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>VCV</c:v>
+                  <c:v>Test English</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>VCCV</c:v>
+                  <c:v>Dwarven Pre-honing</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>VCCCV</c:v>
+                  <c:v>Dwarven Post-honing</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>VCCCCV</c:v>
+                  <c:v>Elven Pre-honing</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>VCCCCCV</c:v>
+                  <c:v>Elven Post-honing</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Orcish Pre-honing</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Orcish Post-honing</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Word Medial Relative Counts'!$C$2:$C$6</c:f>
+              <c:f>'Word Medial Relative Counts'!$C$2:$I$2</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.62211668928086838</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.30223880597014924</c:v>
+                  <c:v>0.67962269199892966</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.7842605156037988E-2</c:v>
+                  <c:v>0.66683262799767651</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.8018995929443691E-3</c:v>
+                  <c:v>0.47466422466422464</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.52698262012560249</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93977223941975285</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.93589844056108451</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2134,68 +2201,141 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Word Medial Relative Counts'!$D$1</c:f>
+              <c:f>'Word Medial Relative Counts'!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Dwarven Pre-honing</c:v>
+                  <c:v>VCCV</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent2">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Word Medial Relative Counts'!$B$2:$B$6</c:f>
+              <c:f>'Word Medial Relative Counts'!$C$1:$I$1</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>VCV</c:v>
+                  <c:v>Test English</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>VCCV</c:v>
+                  <c:v>Dwarven Pre-honing</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>VCCCV</c:v>
+                  <c:v>Dwarven Post-honing</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>VCCCCV</c:v>
+                  <c:v>Elven Pre-honing</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>VCCCCCV</c:v>
+                  <c:v>Elven Post-honing</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Orcish Pre-honing</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Orcish Post-honing</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Word Medial Relative Counts'!$D$2:$D$6</c:f>
+              <c:f>'Word Medial Relative Counts'!$C$3:$I$3</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.67962269199892966</c:v>
+                  <c:v>0.30223880597014924</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.31850414771206853</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4717687985014718E-3</c:v>
+                  <c:v>0.33159073935772965</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0139149050040138E-4</c:v>
+                  <c:v>0.4026862026862027</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.36694902877172486</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0143028221524279E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.395005616069796E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2211,68 +2351,141 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Word Medial Relative Counts'!$E$1</c:f>
+              <c:f>'Word Medial Relative Counts'!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Dwarven Post-honing</c:v>
+                  <c:v>VCCCV</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="accent3">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Word Medial Relative Counts'!$B$2:$B$6</c:f>
+              <c:f>'Word Medial Relative Counts'!$C$1:$I$1</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>VCV</c:v>
+                  <c:v>Test English</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>VCCV</c:v>
+                  <c:v>Dwarven Pre-honing</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>VCCCV</c:v>
+                  <c:v>Dwarven Post-honing</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>VCCCCV</c:v>
+                  <c:v>Elven Pre-honing</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>VCCCCCV</c:v>
+                  <c:v>Elven Post-honing</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Orcish Pre-honing</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Orcish Post-honing</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Word Medial Relative Counts'!$E$2:$E$6</c:f>
+              <c:f>'Word Medial Relative Counts'!$C$4:$I$4</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.66683262799767651</c:v>
+                  <c:v>6.7842605156037988E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.33159073935772965</c:v>
+                  <c:v>1.4717687985014718E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.0787486515641855E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.978839930296241E-4</c:v>
+                  <c:v>0.11534391534391535</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.10351248722068059</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.9083534808052961E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.3139513622234417E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2288,68 +2501,141 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Word Medial Relative Counts'!$F$1</c:f>
+              <c:f>'Word Medial Relative Counts'!$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Elven Pre-honing</c:v>
+                  <c:v>VCCCCV</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent4"/>
+              <a:schemeClr val="accent4">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Word Medial Relative Counts'!$B$2:$B$6</c:f>
+              <c:f>'Word Medial Relative Counts'!$C$1:$I$1</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>VCV</c:v>
+                  <c:v>Test English</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>VCCV</c:v>
+                  <c:v>Dwarven Pre-honing</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>VCCCV</c:v>
+                  <c:v>Dwarven Post-honing</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>VCCCCV</c:v>
+                  <c:v>Elven Pre-honing</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>VCCCCCV</c:v>
+                  <c:v>Elven Post-honing</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Orcish Pre-honing</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Orcish Post-honing</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Word Medial Relative Counts'!$F$2:$F$6</c:f>
+              <c:f>'Word Medial Relative Counts'!$C$5:$I$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.47466422466422464</c:v>
+                  <c:v>7.8018995929443691E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4026862026862027</c:v>
+                  <c:v>4.0139149050040138E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.11534391534391535</c:v>
+                  <c:v>4.978839930296241E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>6.7562067562067559E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.4945054945054945E-4</c:v>
+                  <c:v>2.4463268584781657E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.6488239148609261E-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.8363764595251162E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2365,68 +2651,141 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Word Medial Relative Counts'!$G$1</c:f>
+              <c:f>'Word Medial Relative Counts'!$B$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Elven Post-honing</c:v>
+                  <c:v>VCCCCCV</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent5"/>
+              <a:schemeClr val="accent5">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Word Medial Relative Counts'!$B$2:$B$6</c:f>
+              <c:f>'Word Medial Relative Counts'!$C$1:$I$1</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>VCV</c:v>
+                  <c:v>Test English</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>VCCV</c:v>
+                  <c:v>Dwarven Pre-honing</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>VCCCV</c:v>
+                  <c:v>Dwarven Post-honing</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>VCCCCV</c:v>
+                  <c:v>Elven Pre-honing</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>VCCCCCV</c:v>
+                  <c:v>Elven Post-honing</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Orcish Pre-honing</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Orcish Post-honing</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Word Medial Relative Counts'!$G$2:$G$6</c:f>
+              <c:f>'Word Medial Relative Counts'!$C$6:$I$6</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.52698262012560249</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.36694902877172486</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.10351248722068059</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4463268584781657E-3</c:v>
+                  <c:v>5.4945054945054945E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.0953702351394771E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2437,172 +2796,16 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Word Medial Relative Counts'!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Orcish Pre-honing</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Word Medial Relative Counts'!$B$2:$B$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>VCV</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>VCCV</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>VCCCV</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>VCCCCV</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>VCCCCCV</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Word Medial Relative Counts'!$H$2:$H$6</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.93977223941975285</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.0143028221524279E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.9083534808052961E-5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.6488239148609261E-6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-6D5C-4DC2-BA81-32423723A147}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Word Medial Relative Counts'!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Orcish Post-honing</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Word Medial Relative Counts'!$B$2:$B$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>VCV</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>VCCV</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>VCCCV</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>VCCCCV</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>VCCCCCV</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Word Medial Relative Counts'!$I$2:$I$6</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.93589844056108451</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.395005616069796E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.3139513622234417E-5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.8363764595251162E-5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-6D5C-4DC2-BA81-32423723A147}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
         <c:dLbls>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:gapWidth val="150"/>
         <c:axId val="1263849488"/>
         <c:axId val="1263853808"/>
       </c:barChart>
@@ -2619,11 +2822,11 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -2635,11 +2838,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -2662,17 +2865,29 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2682,33 +2897,6 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="1263849488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -2725,7 +2913,12 @@
       <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -2738,9 +2931,9 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -2764,14 +2957,30 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -2812,11 +3021,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -2826,13 +3035,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Word Final Clusters</a:t>
+              <a:t>Word Final Clusters </a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2849,11 +3053,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -2877,56 +3081,141 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Word Final Relative Counts'!$B$1</c:f>
+              <c:f>'Word Final Relative Counts'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Test English</c:v>
+                  <c:v>VC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent1">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Word Final Relative Counts'!$A$2:$A$4</c:f>
+              <c:f>'Word Final Relative Counts'!$B$1:$H$1</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>VC</c:v>
+                  <c:v>Test English</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>VCC</c:v>
+                  <c:v>Dwarven Pre-honing</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>VCCC</c:v>
+                  <c:v>Dwarven Post-honing</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Elven Pre-honing</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Elven Post-honing</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Orcish Pre-honing</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Orcish Post-honing</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Word Final Relative Counts'!$B$2:$B$4</c:f>
+              <c:f>'Word Final Relative Counts'!$B$2:$H$2</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.73726889393447936</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.24813493350632501</c:v>
+                  <c:v>0.78115591239152249</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4596172559195588E-2</c:v>
+                  <c:v>0.73700092850510679</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.36505480673414803</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.36944491028006038</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99996967307575668</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99997256139388124</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2942,56 +3231,141 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Word Final Relative Counts'!$C$1</c:f>
+              <c:f>'Word Final Relative Counts'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Dwarven Pre-honing</c:v>
+                  <c:v>VCC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent2">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Word Final Relative Counts'!$A$2:$A$4</c:f>
+              <c:f>'Word Final Relative Counts'!$B$1:$H$1</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>VC</c:v>
+                  <c:v>Test English</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>VCC</c:v>
+                  <c:v>Dwarven Pre-honing</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>VCCC</c:v>
+                  <c:v>Dwarven Post-honing</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Elven Pre-honing</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Elven Post-honing</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Orcish Pre-honing</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Orcish Post-honing</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Word Final Relative Counts'!$C$2:$C$4</c:f>
+              <c:f>'Word Final Relative Counts'!$B$3:$H$3</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.78115591239152249</c:v>
+                  <c:v>0.24813493350632501</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.21854891079756775</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9517681090973494E-4</c:v>
+                  <c:v>0.26268956979263386</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.47506162479676928</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.46372631225893007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.032692424334324E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.7438606118809166E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3007,56 +3381,141 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Word Final Relative Counts'!$D$1</c:f>
+              <c:f>'Word Final Relative Counts'!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Dwarven Post-honing</c:v>
+                  <c:v>VCCC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="accent3">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Word Final Relative Counts'!$A$2:$A$4</c:f>
+              <c:f>'Word Final Relative Counts'!$B$1:$H$1</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>VC</c:v>
+                  <c:v>Test English</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>VCC</c:v>
+                  <c:v>Dwarven Pre-honing</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>VCCC</c:v>
+                  <c:v>Dwarven Post-honing</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Elven Pre-honing</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Elven Post-honing</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Orcish Pre-honing</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Orcish Post-honing</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Word Final Relative Counts'!$D$2:$D$4</c:f>
+              <c:f>'Word Final Relative Counts'!$B$4:$H$4</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.73700092850510679</c:v>
+                  <c:v>1.4596172559195588E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.26268956979263386</c:v>
+                  <c:v>2.9517681090973494E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3.0950170225936243E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15988356846908272</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16682877746100955</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3067,278 +3526,16 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Word Final Relative Counts'!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Elven Pre-honing</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Word Final Relative Counts'!$A$2:$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>VC</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>VCC</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>VCCC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Word Final Relative Counts'!$E$2:$E$4</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.36505480673414803</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.47506162479676928</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.15988356846908272</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-B935-442B-A785-2396B3C329BF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Word Final Relative Counts'!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Elven Post-honing</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Word Final Relative Counts'!$A$2:$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>VC</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>VCC</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>VCCC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Word Final Relative Counts'!$F$2:$F$4</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.36944491028006038</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.46372631225893007</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.16682877746100955</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-B935-442B-A785-2396B3C329BF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Word Final Relative Counts'!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Orcish Pre-honing</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Word Final Relative Counts'!$A$2:$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>VC</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>VCC</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>VCCC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Word Final Relative Counts'!$G$2:$G$4</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.99996967307575668</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.032692424334324E-5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-B935-442B-A785-2396B3C329BF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Word Final Relative Counts'!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Orcish Post-honing</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Word Final Relative Counts'!$A$2:$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>VC</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>VCC</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>VCCC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Word Final Relative Counts'!$H$2:$H$4</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.99997256139388124</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.7438606118809166E-5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-B935-442B-A785-2396B3C329BF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
         <c:dLbls>
+          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:gapWidth val="65"/>
         <c:axId val="1478402016"/>
         <c:axId val="1478405856"/>
       </c:barChart>
@@ -3355,11 +3552,11 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -3371,11 +3568,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -3398,17 +3595,29 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -3418,33 +3627,6 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="1478402016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -3461,7 +3643,12 @@
       <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -3474,9 +3661,9 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -3500,14 +3687,30 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -4191,171 +4394,207 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="300">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
         <a:solidFill>
           <a:schemeClr val="dk1">
             <a:lumMod val="25000"/>
             <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -4371,21 +4610,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4400,13 +4637,13 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -4419,17 +4656,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -4438,12 +4675,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -4457,64 +4694,157 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="75000"/>
             <a:lumOff val="25000"/>
           </a:schemeClr>
@@ -4522,96 +4852,38 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
   </cs:seriesLine>
   <cs:title>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -4620,14 +4892,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -4636,9 +4907,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4656,9 +4927,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -4669,11 +4940,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -4681,184 +4957,214 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="300">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
         <a:solidFill>
           <a:schemeClr val="dk1">
             <a:lumMod val="25000"/>
             <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -4874,21 +5180,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4903,13 +5207,13 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -4922,17 +5226,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -4941,12 +5245,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -4960,64 +5264,157 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="75000"/>
             <a:lumOff val="25000"/>
           </a:schemeClr>
@@ -5025,96 +5422,38 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
   </cs:seriesLine>
   <cs:title>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -5123,14 +5462,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -5139,9 +5477,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -5159,9 +5497,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -5172,11 +5510,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -5184,184 +5527,214 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="205">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
         <a:solidFill>
           <a:schemeClr val="dk1">
             <a:lumMod val="25000"/>
             <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -5377,21 +5750,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -5406,13 +5777,13 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -5425,17 +5796,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -5444,12 +5815,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -5463,64 +5834,157 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="75000"/>
             <a:lumOff val="25000"/>
           </a:schemeClr>
@@ -5528,96 +5992,38 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
   </cs:seriesLine>
   <cs:title>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -5626,14 +6032,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -5642,9 +6047,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -5662,9 +6067,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -5675,11 +6080,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -5687,14 +6097,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -5714,7 +6118,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{C02844ED-3B93-449D-8E57-EC582079CE0E}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="113" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5736,7 +6140,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{713D8FFB-2332-4DB6-AA89-5DF34F69C5BD}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="113" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5780,7 +6184,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8665221" cy="6288186"/>
+    <xdr:ext cx="8654143" cy="6272893"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
